--- a/biology/Médecine/Syndrome_de_Master_et_Allen/Syndrome_de_Master_et_Allen.xlsx
+++ b/biology/Médecine/Syndrome_de_Master_et_Allen/Syndrome_de_Master_et_Allen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En gynécologie, le tableau clinique du syndrome de Master et Allen regroupe une douleur pelvienne et permanente, exagérée en position debout et en cas de fatigue.
 Il y a également une dyspareunie balistique (douleur lors des rapports sexuels, notamment lorsque le pénis est introduit le plus profondément possible) et une hypermobilité douloureuse du col lors de l'examen clinique.
@@ -512,7 +524,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La cause généralement à l'origine de ce syndrome est un accouchement traumatique d'un gros bébé ou d'un traumatisme, entrainant des lésions anatomiques : rupture conjonctive des ligaments utéro-sacrés et déchirure du ligament large.
 </t>
@@ -543,7 +557,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut hypothétiquement supposer la présence de ce syndrome par toucher vaginal car généralement le corps utérin se retrouve rétroversé (habituellement antéversé).
 La cœlioscopie confirme le diagnostic.
@@ -575,7 +591,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement est chirurgical et consiste à raccourcir les ligaments ronds.
 Un autre traitement consiste à suturer le ligament large par voie endoscopique.
